--- a/docs/Modelo Relacional - Entrega 2.xlsx
+++ b/docs/Modelo Relacional - Entrega 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Laura\Sistrans\Proyecto-1-grupo-2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72483E3E-3B53-4424-AD79-5814C0EFC883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB517D08-DCA2-4DF3-9838-76494763E23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,10 +970,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1174,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DBC996-F218-493E-95FF-BD086D184A05}">
   <dimension ref="A1:AD1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32802,6 +32798,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010020F529DEB8C6B848B5973A83F61ADED3" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5d80c28e2866291dc37420529de9f00c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e454257-1727-4a9d-9c89-66a9b64f5006" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2180b03b39199c118c1455cb4b3502e4" ns2:_="">
     <xsd:import namespace="3e454257-1727-4a9d-9c89-66a9b64f5006"/>
@@ -32951,35 +32962,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0468F4B-72B8-4527-8EB5-6B40E3CEE7FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4393CBCD-EAFD-4115-B9D8-C80ED598E2BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e454257-1727-4a9d-9c89-66a9b64f5006"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33001,9 +32987,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4393CBCD-EAFD-4115-B9D8-C80ED598E2BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0468F4B-72B8-4527-8EB5-6B40E3CEE7FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e454257-1727-4a9d-9c89-66a9b64f5006"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>